--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gdf9-Bmpr1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H2">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I2">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J2">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.694085898325088</v>
+        <v>0.050199</v>
       </c>
       <c r="N2">
-        <v>0.694085898325088</v>
+        <v>0.100398</v>
       </c>
       <c r="O2">
-        <v>0.5287989059761763</v>
+        <v>0.03278033019113316</v>
       </c>
       <c r="P2">
-        <v>0.5287989059761763</v>
+        <v>0.02558313640211376</v>
       </c>
       <c r="Q2">
-        <v>1.323015200737408</v>
+        <v>0.09818585556749999</v>
       </c>
       <c r="R2">
-        <v>1.323015200737408</v>
+        <v>0.39274342227</v>
       </c>
       <c r="S2">
-        <v>0.2386723874195233</v>
+        <v>0.0102140581618347</v>
       </c>
       <c r="T2">
-        <v>0.2386723874195233</v>
+        <v>0.006330638738300883</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,309 +590,1425 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.90612603415514</v>
+        <v>1.9559325</v>
       </c>
       <c r="H3">
-        <v>1.90612603415514</v>
+        <v>3.911865</v>
       </c>
       <c r="I3">
-        <v>0.4513481112048218</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J3">
-        <v>0.4513481112048218</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.618484703620065</v>
+        <v>0.7708836666666666</v>
       </c>
       <c r="N3">
-        <v>0.618484703620065</v>
+        <v>2.312651</v>
       </c>
       <c r="O3">
-        <v>0.4712010940238238</v>
+        <v>0.5033929188287568</v>
       </c>
       <c r="P3">
-        <v>0.4712010940238238</v>
+        <v>0.5893032329676366</v>
       </c>
       <c r="Q3">
-        <v>1.178909795296932</v>
+        <v>1.5077964173525</v>
       </c>
       <c r="R3">
-        <v>1.178909795296932</v>
+        <v>9.046778504114998</v>
       </c>
       <c r="S3">
-        <v>0.2126757237852985</v>
+        <v>0.1568527382486051</v>
       </c>
       <c r="T3">
-        <v>0.2126757237852985</v>
+        <v>0.1458251958083853</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.25057698901264</v>
+        <v>1.9559325</v>
       </c>
       <c r="H4">
-        <v>1.25057698901264</v>
+        <v>3.911865</v>
       </c>
       <c r="I4">
-        <v>0.2961218470305662</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J4">
-        <v>0.2961218470305662</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.694085898325088</v>
+        <v>0.09074700000000001</v>
       </c>
       <c r="N4">
-        <v>0.694085898325088</v>
+        <v>0.272241</v>
       </c>
       <c r="O4">
-        <v>0.5287989059761763</v>
+        <v>0.05925848371192178</v>
       </c>
       <c r="P4">
-        <v>0.5287989059761763</v>
+        <v>0.06937168705798773</v>
       </c>
       <c r="Q4">
-        <v>0.8680078528435219</v>
+        <v>0.1774950065775</v>
       </c>
       <c r="R4">
-        <v>0.8680078528435219</v>
+        <v>1.064970039465</v>
       </c>
       <c r="S4">
-        <v>0.156588908745408</v>
+        <v>0.01846441435112281</v>
       </c>
       <c r="T4">
-        <v>0.156588908745408</v>
+        <v>0.01716627244321372</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.25057698901264</v>
+        <v>1.9559325</v>
       </c>
       <c r="H5">
-        <v>1.25057698901264</v>
+        <v>3.911865</v>
       </c>
       <c r="I5">
-        <v>0.2961218470305662</v>
+        <v>0.3115910700801156</v>
       </c>
       <c r="J5">
-        <v>0.2961218470305662</v>
+        <v>0.2474535818750443</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.618484703620065</v>
+        <v>0.6195459999999999</v>
       </c>
       <c r="N5">
-        <v>0.618484703620065</v>
+        <v>1.239092</v>
       </c>
       <c r="O5">
-        <v>0.4712010940238238</v>
+        <v>0.4045682672681883</v>
       </c>
       <c r="P5">
-        <v>0.4712010940238238</v>
+        <v>0.3157419435722618</v>
       </c>
       <c r="Q5">
-        <v>0.7734627384035559</v>
+        <v>1.211790156645</v>
       </c>
       <c r="R5">
-        <v>0.7734627384035559</v>
+        <v>4.847160626579999</v>
       </c>
       <c r="S5">
-        <v>0.1395329382851582</v>
+        <v>0.126059859318553</v>
       </c>
       <c r="T5">
-        <v>0.1395329382851582</v>
+        <v>0.07813147488514428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.06648078293469</v>
+        <v>1.322803333333333</v>
       </c>
       <c r="H6">
-        <v>1.06648078293469</v>
+        <v>3.96841</v>
       </c>
       <c r="I6">
-        <v>0.2525300417646121</v>
+        <v>0.2107300257748553</v>
       </c>
       <c r="J6">
-        <v>0.2525300417646121</v>
+        <v>0.2510304596014291</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.694085898325088</v>
+        <v>0.050199</v>
       </c>
       <c r="N6">
-        <v>0.694085898325088</v>
+        <v>0.100398</v>
       </c>
       <c r="O6">
-        <v>0.5287989059761763</v>
+        <v>0.03278033019113316</v>
       </c>
       <c r="P6">
-        <v>0.5287989059761763</v>
+        <v>0.02558313640211376</v>
       </c>
       <c r="Q6">
-        <v>0.7402292722696676</v>
+        <v>0.06640340453</v>
       </c>
       <c r="R6">
-        <v>0.7402292722696676</v>
+        <v>0.39842042718</v>
       </c>
       <c r="S6">
-        <v>0.133537609811245</v>
+        <v>0.006907799826085759</v>
       </c>
       <c r="T6">
-        <v>0.133537609811245</v>
+        <v>0.006422146489068668</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.322803333333333</v>
+      </c>
+      <c r="H7">
+        <v>3.96841</v>
+      </c>
+      <c r="I7">
+        <v>0.2107300257748553</v>
+      </c>
+      <c r="J7">
+        <v>0.2510304596014291</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7708836666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.312651</v>
+      </c>
+      <c r="O7">
+        <v>0.5033929188287568</v>
+      </c>
+      <c r="P7">
+        <v>0.5893032329676366</v>
+      </c>
+      <c r="Q7">
+        <v>1.019727483878889</v>
+      </c>
+      <c r="R7">
+        <v>9.177547354909999</v>
+      </c>
+      <c r="S7">
+        <v>0.1060800027596636</v>
+      </c>
+      <c r="T7">
+        <v>0.1479330614164739</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1.322803333333333</v>
+      </c>
+      <c r="H8">
+        <v>3.96841</v>
+      </c>
+      <c r="I8">
+        <v>0.2107300257748553</v>
+      </c>
+      <c r="J8">
+        <v>0.2510304596014291</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N8">
+        <v>0.272241</v>
+      </c>
+      <c r="O8">
+        <v>0.05925848371192178</v>
+      </c>
+      <c r="P8">
+        <v>0.06937168705798773</v>
+      </c>
+      <c r="Q8">
+        <v>0.12004043409</v>
+      </c>
+      <c r="R8">
+        <v>1.08036390681</v>
+      </c>
+      <c r="S8">
+        <v>0.01248754179999212</v>
+      </c>
+      <c r="T8">
+        <v>0.01741440648549317</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1.322803333333333</v>
+      </c>
+      <c r="H9">
+        <v>3.96841</v>
+      </c>
+      <c r="I9">
+        <v>0.2107300257748553</v>
+      </c>
+      <c r="J9">
+        <v>0.2510304596014291</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6195459999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.239092</v>
+      </c>
+      <c r="O9">
+        <v>0.4045682672681883</v>
+      </c>
+      <c r="P9">
+        <v>0.3157419435722618</v>
+      </c>
+      <c r="Q9">
+        <v>0.8195375139533332</v>
+      </c>
+      <c r="R9">
+        <v>4.917225083719999</v>
+      </c>
+      <c r="S9">
+        <v>0.08525468138911386</v>
+      </c>
+      <c r="T9">
+        <v>0.07926084521039337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.671412</v>
+      </c>
+      <c r="H10">
+        <v>2.014236</v>
+      </c>
+      <c r="I10">
+        <v>0.1069597154015441</v>
+      </c>
+      <c r="J10">
+        <v>0.1274149064299667</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.050199</v>
+      </c>
+      <c r="N10">
+        <v>0.100398</v>
+      </c>
+      <c r="O10">
+        <v>0.03278033019113316</v>
+      </c>
+      <c r="P10">
+        <v>0.02558313640211376</v>
+      </c>
+      <c r="Q10">
+        <v>0.033704210988</v>
+      </c>
+      <c r="R10">
+        <v>0.202225265928</v>
+      </c>
+      <c r="S10">
+        <v>0.003506174788012245</v>
+      </c>
+      <c r="T10">
+        <v>0.0032596729308604</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.671412</v>
+      </c>
+      <c r="H11">
+        <v>2.014236</v>
+      </c>
+      <c r="I11">
+        <v>0.1069597154015441</v>
+      </c>
+      <c r="J11">
+        <v>0.1274149064299667</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.7708836666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.312651</v>
+      </c>
+      <c r="O11">
+        <v>0.5033929188287568</v>
+      </c>
+      <c r="P11">
+        <v>0.5893032329676366</v>
+      </c>
+      <c r="Q11">
+        <v>0.517580544404</v>
+      </c>
+      <c r="R11">
+        <v>4.658224899635999</v>
+      </c>
+      <c r="S11">
+        <v>0.05384276333307639</v>
+      </c>
+      <c r="T11">
+        <v>0.07508601628744829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.671412</v>
+      </c>
+      <c r="H12">
+        <v>2.014236</v>
+      </c>
+      <c r="I12">
+        <v>0.1069597154015441</v>
+      </c>
+      <c r="J12">
+        <v>0.1274149064299667</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N12">
+        <v>0.272241</v>
+      </c>
+      <c r="O12">
+        <v>0.05925848371192178</v>
+      </c>
+      <c r="P12">
+        <v>0.06937168705798773</v>
+      </c>
+      <c r="Q12">
+        <v>0.06092862476400001</v>
+      </c>
+      <c r="R12">
+        <v>0.548357622876</v>
+      </c>
+      <c r="S12">
+        <v>0.006338270552954188</v>
+      </c>
+      <c r="T12">
+        <v>0.008838987015382438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.671412</v>
+      </c>
+      <c r="H13">
+        <v>2.014236</v>
+      </c>
+      <c r="I13">
+        <v>0.1069597154015441</v>
+      </c>
+      <c r="J13">
+        <v>0.1274149064299667</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6195459999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.239092</v>
+      </c>
+      <c r="O13">
+        <v>0.4045682672681883</v>
+      </c>
+      <c r="P13">
+        <v>0.3157419435722618</v>
+      </c>
+      <c r="Q13">
+        <v>0.4159706189519999</v>
+      </c>
+      <c r="R13">
+        <v>2.495823713711999</v>
+      </c>
+      <c r="S13">
+        <v>0.04327250672750124</v>
+      </c>
+      <c r="T13">
+        <v>0.04023023019627556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.261338</v>
+      </c>
+      <c r="H14">
+        <v>0.784014</v>
+      </c>
+      <c r="I14">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J14">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.050199</v>
+      </c>
+      <c r="N14">
+        <v>0.100398</v>
+      </c>
+      <c r="O14">
+        <v>0.03278033019113316</v>
+      </c>
+      <c r="P14">
+        <v>0.02558313640211376</v>
+      </c>
+      <c r="Q14">
+        <v>0.013118906262</v>
+      </c>
+      <c r="R14">
+        <v>0.078713437572</v>
+      </c>
+      <c r="S14">
+        <v>0.001364730905538692</v>
+      </c>
+      <c r="T14">
+        <v>0.001268783406321595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.261338</v>
+      </c>
+      <c r="H15">
+        <v>0.784014</v>
+      </c>
+      <c r="I15">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J15">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7708836666666666</v>
+      </c>
+      <c r="N15">
+        <v>2.312651</v>
+      </c>
+      <c r="O15">
+        <v>0.5033929188287568</v>
+      </c>
+      <c r="P15">
+        <v>0.5893032329676366</v>
+      </c>
+      <c r="Q15">
+        <v>0.2014611956793333</v>
+      </c>
+      <c r="R15">
+        <v>1.813150761114</v>
+      </c>
+      <c r="S15">
+        <v>0.02095756418404723</v>
+      </c>
+      <c r="T15">
+        <v>0.02922621181112217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.06648078293469</v>
-      </c>
-      <c r="H7">
-        <v>1.06648078293469</v>
-      </c>
-      <c r="I7">
-        <v>0.2525300417646121</v>
-      </c>
-      <c r="J7">
-        <v>0.2525300417646121</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.618484703620065</v>
-      </c>
-      <c r="N7">
-        <v>0.618484703620065</v>
-      </c>
-      <c r="O7">
-        <v>0.4712010940238238</v>
-      </c>
-      <c r="P7">
-        <v>0.4712010940238238</v>
-      </c>
-      <c r="Q7">
-        <v>0.6596020509498567</v>
-      </c>
-      <c r="R7">
-        <v>0.6596020509498567</v>
-      </c>
-      <c r="S7">
-        <v>0.1189924319533671</v>
-      </c>
-      <c r="T7">
-        <v>0.1189924319533671</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.261338</v>
+      </c>
+      <c r="H16">
+        <v>0.784014</v>
+      </c>
+      <c r="I16">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J16">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.272241</v>
+      </c>
+      <c r="O16">
+        <v>0.05925848371192178</v>
+      </c>
+      <c r="P16">
+        <v>0.06937168705798773</v>
+      </c>
+      <c r="Q16">
+        <v>0.023715639486</v>
+      </c>
+      <c r="R16">
+        <v>0.213440755374</v>
+      </c>
+      <c r="S16">
+        <v>0.002467085708578252</v>
+      </c>
+      <c r="T16">
+        <v>0.003440455619837024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.261338</v>
+      </c>
+      <c r="H17">
+        <v>0.784014</v>
+      </c>
+      <c r="I17">
+        <v>0.04163261619334883</v>
+      </c>
+      <c r="J17">
+        <v>0.04959452142141433</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6195459999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.239092</v>
+      </c>
+      <c r="O17">
+        <v>0.4045682672681883</v>
+      </c>
+      <c r="P17">
+        <v>0.3157419435722618</v>
+      </c>
+      <c r="Q17">
+        <v>0.161910912548</v>
+      </c>
+      <c r="R17">
+        <v>0.9714654752879999</v>
+      </c>
+      <c r="S17">
+        <v>0.01684323539518465</v>
+      </c>
+      <c r="T17">
+        <v>0.01565907058413353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.998443</v>
+      </c>
+      <c r="H18">
+        <v>2.995329</v>
+      </c>
+      <c r="I18">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J18">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.5</v>
+      </c>
+      <c r="M18">
+        <v>0.050199</v>
+      </c>
+      <c r="N18">
+        <v>0.100398</v>
+      </c>
+      <c r="O18">
+        <v>0.03278033019113316</v>
+      </c>
+      <c r="P18">
+        <v>0.02558313640211376</v>
+      </c>
+      <c r="Q18">
+        <v>0.050120840157</v>
+      </c>
+      <c r="R18">
+        <v>0.300725040942</v>
+      </c>
+      <c r="S18">
+        <v>0.005213960539679527</v>
+      </c>
+      <c r="T18">
+        <v>0.004847392689000271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.998443</v>
+      </c>
+      <c r="H19">
+        <v>2.995329</v>
+      </c>
+      <c r="I19">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J19">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7708836666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.312651</v>
+      </c>
+      <c r="O19">
+        <v>0.5033929188287568</v>
+      </c>
+      <c r="P19">
+        <v>0.5893032329676366</v>
+      </c>
+      <c r="Q19">
+        <v>0.7696834007976666</v>
+      </c>
+      <c r="R19">
+        <v>6.927150607178999</v>
+      </c>
+      <c r="S19">
+        <v>0.08006846787154057</v>
+      </c>
+      <c r="T19">
+        <v>0.111658873180832</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.998443</v>
+      </c>
+      <c r="H20">
+        <v>2.995329</v>
+      </c>
+      <c r="I20">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J20">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N20">
+        <v>0.272241</v>
+      </c>
+      <c r="O20">
+        <v>0.05925848371192178</v>
+      </c>
+      <c r="P20">
+        <v>0.06937168705798773</v>
+      </c>
+      <c r="Q20">
+        <v>0.09060570692100001</v>
+      </c>
+      <c r="R20">
+        <v>0.8154513622890001</v>
+      </c>
+      <c r="S20">
+        <v>0.009425512004109605</v>
+      </c>
+      <c r="T20">
+        <v>0.01314427611153731</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.998443</v>
+      </c>
+      <c r="H21">
+        <v>2.995329</v>
+      </c>
+      <c r="I21">
+        <v>0.1590575967135885</v>
+      </c>
+      <c r="J21">
+        <v>0.1894760913130168</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.6195459999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.239092</v>
+      </c>
+      <c r="O21">
+        <v>0.4045682672681883</v>
+      </c>
+      <c r="P21">
+        <v>0.3157419435722618</v>
+      </c>
+      <c r="Q21">
+        <v>0.6185813668779999</v>
+      </c>
+      <c r="R21">
+        <v>3.711488201267999</v>
+      </c>
+      <c r="S21">
+        <v>0.06434965629825877</v>
+      </c>
+      <c r="T21">
+        <v>0.05982554933164727</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.067313</v>
+      </c>
+      <c r="H22">
+        <v>2.134626</v>
+      </c>
+      <c r="I22">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J22">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.5</v>
+      </c>
+      <c r="M22">
+        <v>0.050199</v>
+      </c>
+      <c r="N22">
+        <v>0.100398</v>
+      </c>
+      <c r="O22">
+        <v>0.03278033019113316</v>
+      </c>
+      <c r="P22">
+        <v>0.02558313640211376</v>
+      </c>
+      <c r="Q22">
+        <v>0.053578045287</v>
+      </c>
+      <c r="R22">
+        <v>0.214312181148</v>
+      </c>
+      <c r="S22">
+        <v>0.005573605969982237</v>
+      </c>
+      <c r="T22">
+        <v>0.003454502148561942</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.067313</v>
+      </c>
+      <c r="H23">
+        <v>2.134626</v>
+      </c>
+      <c r="I23">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J23">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>0.7708836666666666</v>
+      </c>
+      <c r="N23">
+        <v>2.312651</v>
+      </c>
+      <c r="O23">
+        <v>0.5033929188287568</v>
+      </c>
+      <c r="P23">
+        <v>0.5893032329676366</v>
+      </c>
+      <c r="Q23">
+        <v>0.8227741589209999</v>
+      </c>
+      <c r="R23">
+        <v>4.936644953526</v>
+      </c>
+      <c r="S23">
+        <v>0.08559138243182393</v>
+      </c>
+      <c r="T23">
+        <v>0.07957387446337501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.067313</v>
+      </c>
+      <c r="H24">
+        <v>2.134626</v>
+      </c>
+      <c r="I24">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J24">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.09074700000000001</v>
+      </c>
+      <c r="N24">
+        <v>0.272241</v>
+      </c>
+      <c r="O24">
+        <v>0.05925848371192178</v>
+      </c>
+      <c r="P24">
+        <v>0.06937168705798773</v>
+      </c>
+      <c r="Q24">
+        <v>0.096855452811</v>
+      </c>
+      <c r="R24">
+        <v>0.581132716866</v>
+      </c>
+      <c r="S24">
+        <v>0.01007565929516481</v>
+      </c>
+      <c r="T24">
+        <v>0.009367289382524071</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.067313</v>
+      </c>
+      <c r="H25">
+        <v>2.134626</v>
+      </c>
+      <c r="I25">
+        <v>0.1700289758365477</v>
+      </c>
+      <c r="J25">
+        <v>0.1350304393591288</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6195459999999999</v>
+      </c>
+      <c r="N25">
+        <v>1.239092</v>
+      </c>
+      <c r="O25">
+        <v>0.4045682672681883</v>
+      </c>
+      <c r="P25">
+        <v>0.3157419435722618</v>
+      </c>
+      <c r="Q25">
+        <v>0.6612494998979999</v>
+      </c>
+      <c r="R25">
+        <v>2.644997999591999</v>
+      </c>
+      <c r="S25">
+        <v>0.06878832813957678</v>
+      </c>
+      <c r="T25">
+        <v>0.04263477336466776</v>
       </c>
     </row>
   </sheetData>
